--- a/assets/excel/Daftar All Nominatif.xlsx
+++ b/assets/excel/Daftar All Nominatif.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>DAFTAR All Nominatif</t>
   </si>
@@ -47,55 +47,82 @@
     <t>TGL KEMBALI</t>
   </si>
   <si>
-    <t>SPD-001/PPK.4/07/2019</t>
+    <t>SPD-001/PPK./07/2019</t>
   </si>
   <si>
     <t>2019-07-25</t>
   </si>
   <si>
+    <t>Andhika Chrisnayudhanto / 197205261997031005</t>
+  </si>
+  <si>
+    <t>Inggris</t>
+  </si>
+  <si>
+    <t>Luar Negeri</t>
+  </si>
+  <si>
+    <t>2019-07-26</t>
+  </si>
+  <si>
+    <t>Muhammad Farhan Azhar / 199910082018121003</t>
+  </si>
+  <si>
     <t>Edi Setiawan, Ak. / 197209051993021001</t>
   </si>
   <si>
-    <t>Jakarta</t>
+    <t>SPD-002/PPK.4/07/2019</t>
+  </si>
+  <si>
+    <t>Aulia Amani Wahdah / 199711182018122003</t>
+  </si>
+  <si>
+    <t>Semarang</t>
   </si>
   <si>
     <t>Dalam Negeri</t>
   </si>
   <si>
-    <t>2019-07-26</t>
-  </si>
-  <si>
-    <t>Muhammad Farhan Azhar / 199910082018121003</t>
-  </si>
-  <si>
-    <t>SPD-002/PPK.4/07/2019</t>
-  </si>
-  <si>
-    <t>Aulia Amani Wahdah / 199711182018122003</t>
-  </si>
-  <si>
-    <t>Semarang</t>
-  </si>
-  <si>
     <t>2019-07-28</t>
   </si>
   <si>
-    <t>SPD-003/PPK.4/07/2019</t>
+    <t>SPD-003/PPK./07/2019</t>
+  </si>
+  <si>
+    <t>Achmad Sarifudin / 199611032018121002</t>
+  </si>
+  <si>
+    <t>Kanada</t>
+  </si>
+  <si>
+    <t>2019-07-29</t>
+  </si>
+  <si>
+    <t>Abdullah Al Mahdi / DE.1-PL.01.08/23/2018</t>
+  </si>
+  <si>
+    <t>Abdul Malik, M.Ag / DE.1-PL.01.08/03/2018</t>
+  </si>
+  <si>
+    <t>Abdul Hamid Majid, S.P / 197605052017010312067</t>
   </si>
   <si>
     <t>Ardian Fauzi Rahman, S.Sos. / 199212072018011002</t>
   </si>
   <si>
-    <t>Bandung</t>
-  </si>
-  <si>
-    <t>2019-07-29</t>
-  </si>
-  <si>
-    <t>Abdul Malik, M.Ag / DE.1-PL.01.08/03/2018</t>
-  </si>
-  <si>
-    <t>Abdullah Al Mahdi / DE.1-PL.01.08/23/2018</t>
+    <t>SPD-004/PPK.4/08/2019</t>
+  </si>
+  <si>
+    <t>2019-08-13</t>
+  </si>
+  <si>
+    <t>Addy Kusnadi / 197909042008101001</t>
+  </si>
+  <si>
+    <t>Bandar Lampung</t>
+  </si>
+  <si>
+    <t>2019-08-14</t>
   </si>
 </sst>
 </file>
@@ -434,7 +461,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,19 +566,19 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -560,7 +587,7 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -571,25 +598,25 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -597,28 +624,28 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
         <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -629,16 +656,16 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
         <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -647,7 +674,7 @@
         <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -658,16 +685,16 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -676,7 +703,152 @@
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/excel/Daftar All Nominatif.xlsx
+++ b/assets/excel/Daftar All Nominatif.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>DAFTAR All Nominatif</t>
   </si>
@@ -32,7 +32,7 @@
     <t>TANGGAL</t>
   </si>
   <si>
-    <t>PEGAWAI / NIP</t>
+    <t>PEGAWAI - NIP/NRP</t>
   </si>
   <si>
     <t>TUJUAN</t>
@@ -47,82 +47,73 @@
     <t>TGL KEMBALI</t>
   </si>
   <si>
-    <t>SPD-001/PPK./07/2019</t>
-  </si>
-  <si>
-    <t>2019-07-25</t>
-  </si>
-  <si>
-    <t>Andhika Chrisnayudhanto / 197205261997031005</t>
-  </si>
-  <si>
-    <t>Inggris</t>
+    <t>SPD-999/PPK.4/09/2019</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>Muhammad Farhan Azhar / 199910082018121003</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>Dalam Negeri</t>
+  </si>
+  <si>
+    <t>SPD-999/PPK.1/09/2019</t>
+  </si>
+  <si>
+    <t>Kian Falenza Fyqra / 199802102018121002</t>
+  </si>
+  <si>
+    <t>SPD-999/PPK.2/09/2019</t>
+  </si>
+  <si>
+    <t>Binsar Sinaga / 199709032018121003</t>
+  </si>
+  <si>
+    <t>SPD-999/PPK.3/09/2019</t>
+  </si>
+  <si>
+    <t>Achmad Sarifudin / 199611032018121002</t>
+  </si>
+  <si>
+    <t>Amerika Serikat</t>
   </si>
   <si>
     <t>Luar Negeri</t>
   </si>
   <si>
-    <t>2019-07-26</t>
-  </si>
-  <si>
-    <t>Muhammad Farhan Azhar / 199910082018121003</t>
-  </si>
-  <si>
-    <t>Edi Setiawan, Ak. / 197209051993021001</t>
-  </si>
-  <si>
-    <t>SPD-002/PPK.4/07/2019</t>
-  </si>
-  <si>
-    <t>Aulia Amani Wahdah / 199711182018122003</t>
-  </si>
-  <si>
-    <t>Semarang</t>
-  </si>
-  <si>
-    <t>Dalam Negeri</t>
-  </si>
-  <si>
-    <t>2019-07-28</t>
-  </si>
-  <si>
-    <t>SPD-003/PPK./07/2019</t>
-  </si>
-  <si>
-    <t>Achmad Sarifudin / 199611032018121002</t>
-  </si>
-  <si>
-    <t>Kanada</t>
-  </si>
-  <si>
-    <t>2019-07-29</t>
-  </si>
-  <si>
-    <t>Abdullah Al Mahdi / DE.1-PL.01.08/23/2018</t>
-  </si>
-  <si>
-    <t>Abdul Malik, M.Ag / DE.1-PL.01.08/03/2018</t>
-  </si>
-  <si>
-    <t>Abdul Hamid Majid, S.P / 197605052017010312067</t>
-  </si>
-  <si>
-    <t>Ardian Fauzi Rahman, S.Sos. / 199212072018011002</t>
-  </si>
-  <si>
-    <t>SPD-004/PPK.4/08/2019</t>
-  </si>
-  <si>
-    <t>2019-08-13</t>
-  </si>
-  <si>
-    <t>Addy Kusnadi / 197909042008101001</t>
-  </si>
-  <si>
-    <t>Bandar Lampung</t>
-  </si>
-  <si>
-    <t>2019-08-14</t>
+    <t>SPD-1000/PPK.4/10/2019</t>
+  </si>
+  <si>
+    <t>2019-10-01</t>
+  </si>
+  <si>
+    <t>Ade Hermana, S.E., M.M. / 196601061987031001</t>
+  </si>
+  <si>
+    <t>2019-10-02</t>
+  </si>
+  <si>
+    <t>2019-10-04</t>
+  </si>
+  <si>
+    <t>Purwo Hadi Wibowo, S.E. / 197908232014031001</t>
+  </si>
+  <si>
+    <t>SPD-1000/PPK.4/09/2019</t>
+  </si>
+  <si>
+    <t>Siti Nur Arofah / 199704162018122001</t>
+  </si>
+  <si>
+    <t>Bandung</t>
+  </si>
+  <si>
+    <t>Devia Elita Sari / 199003052017010321054</t>
   </si>
 </sst>
 </file>
@@ -461,7 +452,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,10 +517,10 @@
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -537,10 +528,10 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -555,10 +546,10 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -566,16 +557,16 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -584,10 +575,10 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -595,28 +586,28 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -624,28 +615,28 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -653,28 +644,28 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -682,28 +673,28 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -711,144 +702,28 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
